--- a/models_datasets.xlsx
+++ b/models_datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU_KL\thesis\cnn_compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0EB76D-558F-4FE1-9938-37016F42F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1478F-B95C-4803-ACC5-218186AB68B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CB52BBFE-6176-41BC-9402-5574E38B8645}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Models</t>
   </si>
@@ -43,9 +43,6 @@
     <t>AlexNet</t>
   </si>
   <si>
-    <t>DenseNet</t>
-  </si>
-  <si>
     <t>DensePose</t>
   </si>
   <si>
@@ -55,41 +52,192 @@
     <t>VAE</t>
   </si>
   <si>
-    <t>CIFAR10</t>
-  </si>
-  <si>
-    <t>CIFAR100</t>
+    <t>DensePose-COCO</t>
+  </si>
+  <si>
+    <t>MS-COCO detection</t>
+  </si>
+  <si>
+    <t>Mask R-CNN</t>
+  </si>
+  <si>
+    <t>ResNet18</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>DenseNet121</t>
+  </si>
+  <si>
+    <t>DenseNet201</t>
+  </si>
+  <si>
+    <t>LeNet</t>
+  </si>
+  <si>
+    <t>MNIST/test_acc</t>
+  </si>
+  <si>
+    <t>CIFAR10/test_acc</t>
+  </si>
+  <si>
+    <t>CIFAR100/test_acc</t>
+  </si>
+  <si>
+    <t>ImageNet/test_acc</t>
+  </si>
+  <si>
+    <t>AlexNetLinearDST</t>
+  </si>
+  <si>
+    <t>AlexNetLinearDCT</t>
+  </si>
+  <si>
+    <t>AlexNetLinearDFT</t>
+  </si>
+  <si>
+    <t>AlexNetConvDCT</t>
+  </si>
+  <si>
+    <t>AlexNetConvDST</t>
+  </si>
+  <si>
+    <t>AlexNetConvDFT</t>
+  </si>
+  <si>
+    <t>AlexNetDCT</t>
+  </si>
+  <si>
+    <t>AlexNetDST</t>
+  </si>
+  <si>
+    <t>AlexNetDFT</t>
+  </si>
+  <si>
+    <t>Datasets/models</t>
+  </si>
+  <si>
+    <t>LeNetLinearDCT</t>
+  </si>
+  <si>
+    <t>LeNetLinearDST</t>
+  </si>
+  <si>
+    <t>LeNetLinearDFT</t>
+  </si>
+  <si>
+    <t>LeNetConvDCT</t>
+  </si>
+  <si>
+    <t>LeNetConvDST</t>
+  </si>
+  <si>
+    <t>LeNetConvDFT</t>
+  </si>
+  <si>
+    <t>LeNetDCT</t>
+  </si>
+  <si>
+    <t>LeNetDST</t>
+  </si>
+  <si>
+    <t>LeNetDFT</t>
+  </si>
+  <si>
+    <t>ResNet18LinearDCT</t>
+  </si>
+  <si>
+    <t>ResNet18LinearDST</t>
+  </si>
+  <si>
+    <t>ResNet18LinearDFT</t>
+  </si>
+  <si>
+    <t>ResNet18ConvDCT</t>
+  </si>
+  <si>
+    <t>ResNet18ConvDST</t>
+  </si>
+  <si>
+    <t>ResNet18ConvDFT</t>
+  </si>
+  <si>
+    <t>ResNet18DCT</t>
+  </si>
+  <si>
+    <t>ResNet18DST</t>
+  </si>
+  <si>
+    <t>ResNet18DFT</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>remaining</t>
   </si>
   <si>
     <t>ImageNet</t>
-  </si>
-  <si>
-    <t>DensePose-COCO</t>
-  </si>
-  <si>
-    <t>MNIST</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>ResNet-50</t>
-  </si>
-  <si>
-    <t>MS-COCO detection</t>
-  </si>
-  <si>
-    <t>Mask R-CNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,8 +263,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,106 +586,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E03DC5-FB71-43EA-B4FB-6DC24D98427A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.363900005817413</v>
+      </c>
+      <c r="C2">
+        <v>0.210299998521804</v>
+      </c>
+      <c r="D2">
+        <v>0.28560000658035201</v>
+      </c>
+      <c r="E2">
+        <v>0.19050000607967299</v>
+      </c>
+      <c r="F2">
+        <v>0.379400014877319</v>
+      </c>
+      <c r="G2">
+        <v>0.21230000257491999</v>
+      </c>
+      <c r="H2">
+        <v>0.14720000326633401</v>
+      </c>
+      <c r="I2">
+        <v>0.35179999470710699</v>
+      </c>
+      <c r="J2">
+        <v>0.27430000900000001</v>
+      </c>
+      <c r="K2">
+        <v>0.224399998784065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.98070001602172796</v>
+      </c>
+      <c r="C10">
+        <v>0.98290002346038796</v>
+      </c>
+      <c r="D10">
+        <v>0.50239998102188099</v>
+      </c>
+      <c r="E10">
+        <v>0.42019999027252197</v>
+      </c>
+      <c r="F10">
+        <v>0.98269999027252197</v>
+      </c>
+      <c r="G10">
+        <v>0.52880001068115201</v>
+      </c>
+      <c r="H10">
+        <v>0.37529999017715399</v>
+      </c>
+      <c r="I10">
+        <v>0.98140001296997004</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.7999997437000205E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.83459997177124001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>